--- a/SimpleSheduler/SimpleSheduler.BD/SQL/Книга1.xlsx
+++ b/SimpleSheduler/SimpleSheduler.BD/SQL/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Дмитрий\source\repos\Dimaematveev\SheduleFramework\SimpleSheduler\SimpleSheduler.BD\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162CA38E-7269-4FBC-9EAE-6EAAAAF3DFCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A16E9-F26B-4230-98F0-6E2661241C87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{57F5550B-729C-4D13-A0CA-931CBEFA6FC0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{57F5550B-729C-4D13-A0CA-931CBEFA6FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -4405,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EE82F6-F1AD-4A72-AC4E-1AA41077E3A3}">
   <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:O3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41:S71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4424,7 +4424,7 @@
     <col min="14" max="14" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.6640625" customWidth="1"/>
-    <col min="17" max="17" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="81.88671875" customWidth="1"/>
     <col min="18" max="18" width="65.33203125" customWidth="1"/>
     <col min="19" max="21" width="68.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="203.88671875" bestFit="1" customWidth="1"/>
@@ -6241,16 +6241,16 @@
         <v>1</v>
       </c>
       <c r="Q41" t="str">
-        <f>IF(E41&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L41,$M3,M41,"IsDelete=false},"),"")</f>
+        <f>IF(E41&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L41,M$3,M41,"IsDelete=false},"),"")</f>
         <v>new Curriculum(){GroupId = 3,SubjectId = 20,TypeOfClassesId=1,Number=24,IsDelete=false},</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" ref="R41:S41" si="7">IF(F41&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L41,$M3,N41,"IsDelete=false},"),"")</f>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 20,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+        <f t="shared" ref="R41:S41" si="7">IF(F41&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L41,N$3,N41,"IsDelete=false},"),"")</f>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 20,TypeOfClassesId=3,Number=16,IsDelete=false},</v>
       </c>
       <c r="S41" t="str">
         <f t="shared" si="7"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 20,TypeOfClassesId=1,Number=8,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 20,TypeOfClassesId=2,Number=8,IsDelete=false},</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -6300,16 +6300,16 @@
         <v>1</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" ref="Q42:Q71" si="11">IF(E42&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L42,$M4,M42,"IsDelete=false},"),"")</f>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 21,ЛекNumber=32,IsDelete=false},</v>
+        <f t="shared" ref="Q42:Q74" si="11">IF(E42&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L42,M$3,M42,"IsDelete=false},"),"")</f>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 21,TypeOfClassesId=1,Number=32,IsDelete=false},</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" ref="R42:R71" si="12">IF(F42&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L42,$M4,N42,"IsDelete=false},"),"")</f>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 21,ЛекNumber=8,IsDelete=false},</v>
+        <f t="shared" ref="R42:R74" si="12">IF(F42&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L42,N$3,N42,"IsDelete=false},"),"")</f>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 21,TypeOfClassesId=3,Number=8,IsDelete=false},</v>
       </c>
       <c r="S42" t="str">
-        <f t="shared" ref="S42:S71" si="13">IF(G42&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L42,$M4,O42,"IsDelete=false},"),"")</f>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 21,ЛекNumber=16,IsDelete=false},</v>
+        <f t="shared" ref="S42:S74" si="13">IF(G42&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L42,O$3,O42,"IsDelete=false},"),"")</f>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 21,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="Q43" t="str">
         <f t="shared" si="11"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 22,TypeOfClassesId=1,16,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 22,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
       </c>
       <c r="R43" t="str">
         <f t="shared" si="12"/>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="S43" t="str">
         <f t="shared" si="13"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 22,TypeOfClassesId=1,16,Number=32,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 22,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -6468,15 +6468,15 @@
       </c>
       <c r="Q45" t="str">
         <f t="shared" si="11"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 24,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 24,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
       </c>
       <c r="R45" t="str">
         <f t="shared" si="12"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 24,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 24,TypeOfClassesId=3,Number=16,IsDelete=false},</v>
       </c>
       <c r="S45" t="str">
         <f t="shared" si="13"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 24,Number=8,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 24,TypeOfClassesId=2,Number=8,IsDelete=false},</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -6527,15 +6527,15 @@
       </c>
       <c r="Q46" t="str">
         <f t="shared" si="11"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 25,TypeOfClassesId=1,32,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 25,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
       </c>
       <c r="R46" t="str">
         <f t="shared" si="12"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 25,TypeOfClassesId=1,32,Number=12,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 25,TypeOfClassesId=3,Number=12,IsDelete=false},</v>
       </c>
       <c r="S46" t="str">
         <f t="shared" si="13"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 25,TypeOfClassesId=1,32,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 25,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
@@ -6586,15 +6586,15 @@
       </c>
       <c r="Q47" t="str">
         <f t="shared" si="11"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 26,TypeOfClassesId=1,32,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 26,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
       </c>
       <c r="R47" t="str">
         <f t="shared" si="12"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 26,TypeOfClassesId=1,32,Number=8,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 26,TypeOfClassesId=3,Number=8,IsDelete=false},</v>
       </c>
       <c r="S47" t="str">
         <f t="shared" si="13"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 26,TypeOfClassesId=1,32,Number=32,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 26,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="S51" t="str">
         <f t="shared" si="13"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 19,Number=54,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 19,TypeOfClassesId=2,Number=54,IsDelete=false},</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -7004,15 +7004,15 @@
       </c>
       <c r="Q55" t="str">
         <f t="shared" si="11"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 33,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 33,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
       </c>
       <c r="R55" t="str">
         <f t="shared" si="12"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 33,Number=8,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 33,TypeOfClassesId=3,Number=8,IsDelete=false},</v>
       </c>
       <c r="S55" t="str">
         <f t="shared" si="13"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 33,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 33,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="Q56" t="str">
         <f t="shared" si="11"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 34,TypeOfClassesId=1,32,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 34,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
       </c>
       <c r="R56" t="str">
         <f t="shared" si="12"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 34,TypeOfClassesId=1,32,Number=8,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 34,TypeOfClassesId=3,Number=8,IsDelete=false},</v>
       </c>
       <c r="S56" t="str">
         <f t="shared" si="13"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 34,TypeOfClassesId=1,32,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 34,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -7122,15 +7122,15 @@
       </c>
       <c r="Q57" t="str">
         <f t="shared" si="11"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 35,TypeOfClassesId=1,16,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 35,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
       </c>
       <c r="R57" t="str">
         <f t="shared" si="12"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 35,TypeOfClassesId=1,16,Number=8,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 35,TypeOfClassesId=3,Number=8,IsDelete=false},</v>
       </c>
       <c r="S57" t="str">
         <f t="shared" si="13"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 35,TypeOfClassesId=1,16,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 35,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
@@ -7485,11 +7485,11 @@
       </c>
       <c r="Q64" t="str">
         <f t="shared" si="11"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 42,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 42,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
       </c>
       <c r="R64" t="str">
         <f t="shared" si="12"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 42,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 42,TypeOfClassesId=3,Number=16,IsDelete=false},</v>
       </c>
       <c r="S64" t="str">
         <f t="shared" si="13"/>
@@ -7542,11 +7542,11 @@
       </c>
       <c r="Q65" t="str">
         <f t="shared" si="11"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 43,TypeOfClassesId=1,16,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 43,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
       </c>
       <c r="R65" t="str">
         <f t="shared" si="12"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 43,TypeOfClassesId=1,16,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 43,TypeOfClassesId=3,Number=16,IsDelete=false},</v>
       </c>
       <c r="S65" t="str">
         <f t="shared" si="13"/>
@@ -7599,11 +7599,11 @@
       </c>
       <c r="Q66" t="str">
         <f t="shared" si="11"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 44,TypeOfClassesId=1,16,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 44,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
       </c>
       <c r="R66" t="str">
         <f t="shared" si="12"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 44,TypeOfClassesId=1,16,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 44,TypeOfClassesId=3,Number=16,IsDelete=false},</v>
       </c>
       <c r="S66" t="str">
         <f t="shared" si="13"/>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="11"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 48,TypeOfClassesId=1,16,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 48,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
       </c>
       <c r="R70" t="str">
         <f t="shared" si="12"/>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="S70" t="str">
         <f t="shared" si="13"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 48,TypeOfClassesId=1,16,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 48,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="Q71" t="str">
         <f t="shared" si="11"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 49,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 49,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
       </c>
       <c r="R71" t="str">
         <f t="shared" si="12"/>
@@ -7874,7 +7874,35 @@
       </c>
       <c r="S71" t="str">
         <f t="shared" si="13"/>
-        <v>new Curriculum(){GroupId = 3,SubjectId = 49,Number=16,IsDelete=false},</v>
+        <v>new Curriculum(){GroupId = 3,SubjectId = 49,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q72" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R72" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S72" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q73" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R73" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S73" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
@@ -7933,7 +7961,7 @@
   <dimension ref="A1:U78"/>
   <sheetViews>
     <sheetView topLeftCell="E2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41:O41"/>
+      <selection activeCell="Q41" sqref="Q41:S71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9339,7 +9367,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>49</v>
       </c>
@@ -9390,7 +9418,7 @@
         <v>new Curriculum(){GroupId = 1,SubjectId = 13,TypeOfClassesId=1,16,TypeOfClassesId=3,8,TypeOfClassesId=2,32,},</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>74</v>
       </c>
@@ -9441,7 +9469,7 @@
         <v>new Curriculum(){GroupId = 1,SubjectId = 14,TypeOfClassesId=1,16,TypeOfClassesId=3,8,TypeOfClassesId=2,32,},</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>77</v>
       </c>
@@ -9490,7 +9518,7 @@
         <v>new Curriculum(){GroupId = 1,SubjectId = 15,TypeOfClassesId=1,16,TypeOfClassesId=2,16,},</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>80</v>
       </c>
@@ -9539,7 +9567,7 @@
         <v>new Curriculum(){GroupId = 1,SubjectId = 16,TypeOfClassesId=1,16,TypeOfClassesId=2,16,},</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>105</v>
       </c>
@@ -9582,7 +9610,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>106</v>
       </c>
@@ -9625,7 +9653,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>107</v>
       </c>
@@ -9668,7 +9696,7 @@
         <v>new Curriculum(){GroupId = 1,SubjectId = 19,TypeOfClassesId=2,56,},</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="28"/>
@@ -9705,7 +9733,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>10</v>
       </c>
@@ -9744,11 +9772,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+        <f>IF(E41&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L41,M$3,M41,"IsDelete=false},"),"")</f>
+        <v/>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" ref="R41:S41" si="5">IF(F41&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L41,N$3,N41,"IsDelete=false},"),"")</f>
+        <v/>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>14</v>
       </c>
@@ -9771,15 +9807,15 @@
         <v>SubjectId = 21,</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M42:M71" si="6">IF(E42&gt;0,CONCATENATE("Number=",E42,","),"")</f>
         <v/>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N42:N71" si="7">IF(F42&gt;0,CONCATENATE("Number=",F42,","),"")</f>
         <v/>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O42:O71" si="8">IF(G42&gt;0,CONCATENATE("Number=",G42,","),"")</f>
         <v/>
       </c>
       <c r="P42" t="b">
@@ -9787,11 +9823,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Q42:Q71" si="9">IF(E42&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L42,M$3,M42,"IsDelete=false},"),"")</f>
+        <v/>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" ref="R42:R71" si="10">IF(F42&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L42,N$3,N42,"IsDelete=false},"),"")</f>
+        <v/>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" ref="S42:S71" si="11">IF(G42&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L42,O$3,O42,"IsDelete=false},"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>17</v>
       </c>
@@ -9814,15 +9858,15 @@
         <v>SubjectId = 22,</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P43" t="b">
@@ -9830,11 +9874,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S43" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>21</v>
       </c>
@@ -9863,27 +9915,35 @@
         <v>SubjectId = 23,</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="6"/>
+        <v>Number=16,</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="8"/>
+        <v>Number=32,</v>
       </c>
       <c r="P44" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 23,TypeOfClassesId=1,16,TypeOfClassesId=2,32,},</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 23,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S44" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 23,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>24</v>
       </c>
@@ -9906,15 +9966,15 @@
         <v>SubjectId = 24,</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P45" t="b">
@@ -9922,11 +9982,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>27</v>
       </c>
@@ -9957,27 +10025,35 @@
         <v>SubjectId = 25,</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="6"/>
+        <v>Number=16,</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=3,8,</v>
+        <f t="shared" si="7"/>
+        <v>Number=8,</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,16,</v>
+        <f t="shared" si="8"/>
+        <v>Number=16,</v>
       </c>
       <c r="P46" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 25,TypeOfClassesId=1,16,TypeOfClassesId=3,8,TypeOfClassesId=2,16,},</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 25,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="10"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 25,TypeOfClassesId=3,Number=8,IsDelete=false},</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 25,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>30</v>
       </c>
@@ -10008,27 +10084,35 @@
         <v>SubjectId = 26,</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="6"/>
+        <v>Number=16,</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=3,4,</v>
+        <f t="shared" si="7"/>
+        <v>Number=4,</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,16,</v>
+        <f t="shared" si="8"/>
+        <v>Number=16,</v>
       </c>
       <c r="P47" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 26,TypeOfClassesId=1,16,TypeOfClassesId=3,4,TypeOfClassesId=2,16,},</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 26,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="10"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 26,TypeOfClassesId=3,Number=4,IsDelete=false},</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 26,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>34</v>
       </c>
@@ -10059,27 +10143,35 @@
         <v>SubjectId = 27,</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="6"/>
+        <v>Number=16,</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=3,4,</v>
+        <f t="shared" si="7"/>
+        <v>Number=4,</v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,16,</v>
+        <f t="shared" si="8"/>
+        <v>Number=16,</v>
       </c>
       <c r="P48" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 27,TypeOfClassesId=1,16,TypeOfClassesId=3,4,TypeOfClassesId=2,16,},</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 27,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="10"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 27,TypeOfClassesId=3,Number=4,IsDelete=false},</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 27,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>37</v>
       </c>
@@ -10110,27 +10202,35 @@
         <v>SubjectId = 28,</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="6"/>
+        <v>Number=16,</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=3,8,</v>
+        <f t="shared" si="7"/>
+        <v>Number=8,</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,16,</v>
+        <f t="shared" si="8"/>
+        <v>Number=16,</v>
       </c>
       <c r="P49" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 28,TypeOfClassesId=1,16,TypeOfClassesId=3,8,TypeOfClassesId=2,16,},</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 28,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="10"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 28,TypeOfClassesId=3,Number=8,IsDelete=false},</v>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 28,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>40</v>
       </c>
@@ -10159,27 +10259,35 @@
         <v>SubjectId = 29,</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="6"/>
+        <v>Number=16,</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,16,</v>
+        <f t="shared" si="8"/>
+        <v>Number=16,</v>
       </c>
       <c r="P50" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 29,TypeOfClassesId=1,16,TypeOfClassesId=2,16,},</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 29,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 29,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>43</v>
       </c>
@@ -10204,27 +10312,35 @@
         <v>SubjectId = 19,</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,54,</v>
+        <f t="shared" si="8"/>
+        <v>Number=54,</v>
       </c>
       <c r="P51" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 19,TypeOfClassesId=2,54,},</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 19,TypeOfClassesId=2,Number=54,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>46</v>
       </c>
@@ -10253,27 +10369,35 @@
         <v>SubjectId = 30,</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,8,</v>
+        <f t="shared" si="6"/>
+        <v>Number=8,</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,8,</v>
+        <f t="shared" si="8"/>
+        <v>Number=8,</v>
       </c>
       <c r="P52" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 30,TypeOfClassesId=1,8,TypeOfClassesId=2,8,},</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 30,TypeOfClassesId=1,Number=8,IsDelete=false},</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 30,TypeOfClassesId=2,Number=8,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
         <v>49</v>
       </c>
@@ -10302,27 +10426,35 @@
         <v>SubjectId = 31,</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,8,</v>
+        <f t="shared" si="6"/>
+        <v>Number=8,</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,8,</v>
+        <f t="shared" si="8"/>
+        <v>Number=8,</v>
       </c>
       <c r="P53" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 31,TypeOfClassesId=1,8,TypeOfClassesId=2,8,},</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 31,TypeOfClassesId=1,Number=8,IsDelete=false},</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 31,TypeOfClassesId=2,Number=8,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>74</v>
       </c>
@@ -10351,27 +10483,35 @@
         <v>SubjectId = 32,</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,8,</v>
+        <f t="shared" si="6"/>
+        <v>Number=8,</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,8,</v>
+        <f t="shared" si="8"/>
+        <v>Number=8,</v>
       </c>
       <c r="P54" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 32,TypeOfClassesId=1,8,TypeOfClassesId=2,8,},</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 32,TypeOfClassesId=1,Number=8,IsDelete=false},</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 32,TypeOfClassesId=2,Number=8,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>77</v>
       </c>
@@ -10394,15 +10534,15 @@
         <v>SubjectId = 33,</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P55" t="b">
@@ -10410,11 +10550,19 @@
         <v>0</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
         <v>80</v>
       </c>
@@ -10437,15 +10585,15 @@
         <v>SubjectId = 34,</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P56" t="b">
@@ -10453,11 +10601,19 @@
         <v>0</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>105</v>
       </c>
@@ -10480,15 +10636,15 @@
         <v>SubjectId = 35,</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P57" t="b">
@@ -10496,11 +10652,19 @@
         <v>0</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R57" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S57" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>106</v>
       </c>
@@ -10531,27 +10695,35 @@
         <v>SubjectId = 36,</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="6"/>
+        <v>Number=16,</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=3,8,</v>
+        <f t="shared" si="7"/>
+        <v>Number=8,</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,16,</v>
+        <f t="shared" si="8"/>
+        <v>Number=16,</v>
       </c>
       <c r="P58" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 36,TypeOfClassesId=1,16,TypeOfClassesId=3,8,TypeOfClassesId=2,16,},</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 36,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R58" t="str">
+        <f t="shared" si="10"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 36,TypeOfClassesId=3,Number=8,IsDelete=false},</v>
+      </c>
+      <c r="S58" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 36,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>107</v>
       </c>
@@ -10582,27 +10754,35 @@
         <v>SubjectId = 37,</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="6"/>
+        <v>Number=16,</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=3,8,</v>
+        <f t="shared" si="7"/>
+        <v>Number=8,</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,16,</v>
+        <f t="shared" si="8"/>
+        <v>Number=16,</v>
       </c>
       <c r="P59" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 37,TypeOfClassesId=1,16,TypeOfClassesId=3,8,TypeOfClassesId=2,16,},</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 37,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R59" t="str">
+        <f t="shared" si="10"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 37,TypeOfClassesId=3,Number=8,IsDelete=false},</v>
+      </c>
+      <c r="S59" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 37,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>145</v>
       </c>
@@ -10633,27 +10813,35 @@
         <v>SubjectId = 38,</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="6"/>
+        <v>Number=16,</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=3,8,</v>
+        <f t="shared" si="7"/>
+        <v>Number=8,</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,16,</v>
+        <f t="shared" si="8"/>
+        <v>Number=16,</v>
       </c>
       <c r="P60" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 38,TypeOfClassesId=1,16,TypeOfClassesId=3,8,TypeOfClassesId=2,16,},</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 38,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R60" t="str">
+        <f t="shared" si="10"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 38,TypeOfClassesId=3,Number=8,IsDelete=false},</v>
+      </c>
+      <c r="S60" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 38,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>148</v>
       </c>
@@ -10684,27 +10872,35 @@
         <v>SubjectId = 39,</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="6"/>
+        <v>Number=16,</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=3,12,</v>
+        <f t="shared" si="7"/>
+        <v>Number=12,</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="8"/>
+        <v>Number=32,</v>
       </c>
       <c r="P61" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 39,TypeOfClassesId=1,16,TypeOfClassesId=3,12,TypeOfClassesId=2,32,},</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 39,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R61" t="str">
+        <f t="shared" si="10"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 39,TypeOfClassesId=3,Number=12,IsDelete=false},</v>
+      </c>
+      <c r="S61" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 39,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>151</v>
       </c>
@@ -10735,27 +10931,35 @@
         <v>SubjectId = 40,</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="6"/>
+        <v>Number=16,</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=3,12,</v>
+        <f t="shared" si="7"/>
+        <v>Number=12,</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="8"/>
+        <v>Number=32,</v>
       </c>
       <c r="P62" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 40,TypeOfClassesId=1,16,TypeOfClassesId=3,12,TypeOfClassesId=2,32,},</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 40,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R62" t="str">
+        <f t="shared" si="10"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 40,TypeOfClassesId=3,Number=12,IsDelete=false},</v>
+      </c>
+      <c r="S62" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 40,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>154</v>
       </c>
@@ -10786,27 +10990,35 @@
         <v>SubjectId = 41,</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="6"/>
+        <v>Number=16,</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=3,12,</v>
+        <f t="shared" si="7"/>
+        <v>Number=12,</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="8"/>
+        <v>Number=32,</v>
       </c>
       <c r="P63" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 41,TypeOfClassesId=1,16,TypeOfClassesId=3,12,TypeOfClassesId=2,32,},</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 41,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R63" t="str">
+        <f t="shared" si="10"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 41,TypeOfClassesId=3,Number=12,IsDelete=false},</v>
+      </c>
+      <c r="S63" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 41,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
         <v>157</v>
       </c>
@@ -10829,15 +11041,15 @@
         <v>SubjectId = 42,</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P64" t="b">
@@ -10845,11 +11057,19 @@
         <v>0</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R64" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S64" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>160</v>
       </c>
@@ -10872,15 +11092,15 @@
         <v>SubjectId = 43,</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P65" t="b">
@@ -10888,11 +11108,19 @@
         <v>0</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R65" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>163</v>
       </c>
@@ -10915,15 +11143,15 @@
         <v>SubjectId = 44,</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P66" t="b">
@@ -10931,11 +11159,19 @@
         <v>0</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R66" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S66" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>166</v>
       </c>
@@ -10966,27 +11202,35 @@
         <v>SubjectId = 45,</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="6"/>
+        <v>Number=16,</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=3,4,</v>
+        <f t="shared" si="7"/>
+        <v>Number=4,</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="8"/>
+        <v>Number=32,</v>
       </c>
       <c r="P67" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 45,TypeOfClassesId=1,16,TypeOfClassesId=3,4,TypeOfClassesId=2,32,},</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 45,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R67" t="str">
+        <f t="shared" si="10"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 45,TypeOfClassesId=3,Number=4,IsDelete=false},</v>
+      </c>
+      <c r="S67" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 45,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
         <v>169</v>
       </c>
@@ -11017,27 +11261,35 @@
         <v>SubjectId = 46,</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="6"/>
+        <v>Number=16,</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=3,4,</v>
+        <f t="shared" si="7"/>
+        <v>Number=4,</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="8"/>
+        <v>Number=32,</v>
       </c>
       <c r="P68" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 46,TypeOfClassesId=1,16,TypeOfClassesId=3,4,TypeOfClassesId=2,32,},</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 46,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R68" t="str">
+        <f t="shared" si="10"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 46,TypeOfClassesId=3,Number=4,IsDelete=false},</v>
+      </c>
+      <c r="S68" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 46,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>172</v>
       </c>
@@ -11068,27 +11320,35 @@
         <v>SubjectId = 47,</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="6"/>
+        <v>Number=16,</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=3,4,</v>
+        <f t="shared" si="7"/>
+        <v>Number=4,</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="8"/>
+        <v>Number=32,</v>
       </c>
       <c r="P69" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="3"/>
-        <v>new Curriculum(){GroupId = 1,SubjectId = 47,TypeOfClassesId=1,16,TypeOfClassesId=3,4,TypeOfClassesId=2,32,},</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 47,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R69" t="str">
+        <f t="shared" si="10"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 47,TypeOfClassesId=3,Number=4,IsDelete=false},</v>
+      </c>
+      <c r="S69" t="str">
+        <f t="shared" si="11"/>
+        <v>new Curriculum(){GroupId = 1,SubjectId = 47,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>175</v>
       </c>
@@ -11111,27 +11371,35 @@
         <v>SubjectId = 48,</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" ref="M70:O71" si="5">IF(E70&gt;0,CONCATENATE(M$3,E70,","),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P70" t="b">
-        <f t="shared" ref="P70:P71" si="6">IF(AND(OR(E70&gt;0,F70&gt;0,G70&gt;0),IFERROR(L70,0)&gt;0),TRUE,FALSE)</f>
+        <f t="shared" ref="P70:P71" si="12">IF(AND(OR(E70&gt;0,F70&gt;0,G70&gt;0),IFERROR(L70,0)&gt;0),TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" ref="Q70:Q71" si="7">IF(P70,CONCATENATE("new Curriculum(){",L$2, L70, M70, N70,O70,"},"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R70" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S70" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>178</v>
       </c>
@@ -11154,57 +11422,65 @@
         <v>SubjectId = 49,</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P71" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R71" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S71" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E74" s="44">
         <f>SUM(E41:E71)</f>
         <v>264</v>
       </c>
       <c r="F74" s="44">
-        <f t="shared" ref="F74:K74" si="8">SUM(F41:F71)</f>
+        <f t="shared" ref="F74:K74" si="13">SUM(F41:F71)</f>
         <v>96</v>
       </c>
       <c r="G74" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>430</v>
       </c>
       <c r="H74" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I74" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J74" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K74" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="I76">
         <f>I74/18</f>
         <v>0</v>
@@ -11214,7 +11490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="I78">
         <f>I76+J76</f>
         <v>0</v>
@@ -11229,8 +11505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B951A052-0C6F-4FC3-9151-3122DAF65BB7}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:O3"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11377,8 +11653,16 @@
         <v>1</v>
       </c>
       <c r="Q5" t="str">
-        <f>IF(P5,CONCATENATE("new Curriculum(){",L$2, L5, M5, N5,O5,"},"),"")</f>
-        <v>new Curriculum(){GroupId = 4,SubjectId = 9,Number=62,},</v>
+        <f>IF(E5&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L5,M$3,M5,"IsDelete=false},"),"")</f>
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" ref="R5:S5" si="1">IF(F5&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L5,N$3,N5,"IsDelete=false},"),"")</f>
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="1"/>
+        <v>new Curriculum(){GroupId = 4,SubjectId = 9,TypeOfClassesId=2,Number=62,IsDelete=false},</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -11408,24 +11692,32 @@
         <v>SubjectId = 3,</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" ref="M6:M19" si="1">IF(E6&gt;0,CONCATENATE(M$3,E6,","),"")</f>
+        <f t="shared" ref="M6:M19" si="2">IF(E6&gt;0,CONCATENATE("Number=",E6,","),"")</f>
         <v/>
       </c>
       <c r="N6" t="str">
-        <f t="shared" ref="N6:N19" si="2">IF(F6&gt;0,CONCATENATE(N$3,F6,","),"")</f>
+        <f t="shared" ref="N6:N19" si="3">IF(F6&gt;0,CONCATENATE("Number=",F6,","),"")</f>
         <v/>
       </c>
       <c r="O6" t="str">
-        <f t="shared" ref="O6:O19" si="3">IF(G6&gt;0,CONCATENATE(O$3,G6,","),"")</f>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" ref="O6:O19" si="4">IF(G6&gt;0,CONCATENATE("Number=",G6,","),"")</f>
+        <v>Number=32,</v>
       </c>
       <c r="P6" t="b">
-        <f t="shared" ref="P6:P19" si="4">IF(AND(OR(E6&gt;0,F6&gt;0,G6&gt;0),IFERROR(L6,0)&gt;0),TRUE,FALSE)</f>
+        <f t="shared" ref="P6:P19" si="5">IF(AND(OR(E6&gt;0,F6&gt;0,G6&gt;0),IFERROR(L6,0)&gt;0),TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" ref="Q6:Q19" si="5">IF(P6,CONCATENATE("new Curriculum(){",L$2, L6, M6, N6,O6,"},"),"")</f>
-        <v>new Curriculum(){GroupId = 4,SubjectId = 3,TypeOfClassesId=2,32,},</v>
+        <f t="shared" ref="Q6:Q19" si="6">IF(E6&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L6,M$3,M6,"IsDelete=false},"),"")</f>
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" ref="R6:R19" si="7">IF(F6&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L6,N$3,N6,"IsDelete=false},"),"")</f>
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" ref="S6:S19" si="8">IF(G6&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L6,O$3,O6,"IsDelete=false},"),"")</f>
+        <v>new Curriculum(){GroupId = 4,SubjectId = 3,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -11457,24 +11749,32 @@
         <v>SubjectId = 50,</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="2"/>
+        <v>Number=16,</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="3"/>
-        <v>TypeOfClassesId=2,16,</v>
+        <f t="shared" si="4"/>
+        <v>Number=16,</v>
       </c>
       <c r="P7" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="5"/>
-        <v>new Curriculum(){GroupId = 4,SubjectId = 50,TypeOfClassesId=1,16,TypeOfClassesId=2,16,},</v>
+        <f t="shared" si="6"/>
+        <v>new Curriculum(){GroupId = 4,SubjectId = 50,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="8"/>
+        <v>new Curriculum(){GroupId = 4,SubjectId = 50,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -11500,23 +11800,31 @@
         <v>SubjectId = 2,</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11543,23 +11851,31 @@
         <v>SubjectId = 51,</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P9" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11592,24 +11908,32 @@
         <v>SubjectId = 52,</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="2"/>
+        <v>Number=16,</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="3"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="4"/>
+        <v>Number=32,</v>
       </c>
       <c r="P10" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="5"/>
-        <v>new Curriculum(){GroupId = 4,SubjectId = 52,TypeOfClassesId=1,16,TypeOfClassesId=2,32,},</v>
+        <f t="shared" si="6"/>
+        <v>new Curriculum(){GroupId = 4,SubjectId = 52,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="8"/>
+        <v>new Curriculum(){GroupId = 4,SubjectId = 52,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -11643,24 +11967,32 @@
         <v>SubjectId = 7,</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="2"/>
+        <v>Number=16,</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="2"/>
-        <v>TypeOfClassesId=3,16,</v>
+        <f t="shared" si="3"/>
+        <v>Number=16,</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="3"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="4"/>
+        <v>Number=32,</v>
       </c>
       <c r="P11" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="5"/>
-        <v>new Curriculum(){GroupId = 4,SubjectId = 7,TypeOfClassesId=1,16,TypeOfClassesId=3,16,TypeOfClassesId=2,32,},</v>
+        <f t="shared" si="6"/>
+        <v>new Curriculum(){GroupId = 4,SubjectId = 7,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="7"/>
+        <v>new Curriculum(){GroupId = 4,SubjectId = 7,TypeOfClassesId=3,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="8"/>
+        <v>new Curriculum(){GroupId = 4,SubjectId = 7,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="22.8" x14ac:dyDescent="0.3">
@@ -11692,24 +12024,32 @@
         <v>SubjectId = 53,</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,32,</v>
+        <f t="shared" si="2"/>
+        <v>Number=32,</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="3"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="4"/>
+        <v>Number=32,</v>
       </c>
       <c r="P12" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="5"/>
-        <v>new Curriculum(){GroupId = 4,SubjectId = 53,TypeOfClassesId=1,32,TypeOfClassesId=2,32,},</v>
+        <f t="shared" si="6"/>
+        <v>new Curriculum(){GroupId = 4,SubjectId = 53,TypeOfClassesId=1,Number=32,IsDelete=false},</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="8"/>
+        <v>new Curriculum(){GroupId = 4,SubjectId = 53,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -11741,24 +12081,32 @@
         <v>SubjectId = 4,</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,32,</v>
+        <f t="shared" si="2"/>
+        <v>Number=32,</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="3"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="4"/>
+        <v>Number=32,</v>
       </c>
       <c r="P13" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="5"/>
-        <v>new Curriculum(){GroupId = 4,SubjectId = 4,TypeOfClassesId=1,32,TypeOfClassesId=2,32,},</v>
+        <f t="shared" si="6"/>
+        <v>new Curriculum(){GroupId = 4,SubjectId = 4,TypeOfClassesId=1,Number=32,IsDelete=false},</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="8"/>
+        <v>new Curriculum(){GroupId = 4,SubjectId = 4,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -11784,23 +12132,31 @@
         <v>SubjectId = 54,</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P14" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -11831,24 +12187,32 @@
         <v>SubjectId = 55,</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="2"/>
+        <v>Number=16,</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P15" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="5"/>
-        <v>new Curriculum(){GroupId = 4,SubjectId = 55,TypeOfClassesId=1,16,},</v>
+        <f t="shared" si="6"/>
+        <v>new Curriculum(){GroupId = 4,SubjectId = 55,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -11874,27 +12238,35 @@
         <v>SubjectId = 56,</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P16" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>49</v>
       </c>
@@ -11923,27 +12295,35 @@
         <v>SubjectId = 57,</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,32,</v>
+        <f t="shared" si="2"/>
+        <v>Number=32,</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="3"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="4"/>
+        <v>Number=32,</v>
       </c>
       <c r="P17" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="5"/>
-        <v>new Curriculum(){GroupId = 4,SubjectId = 57,TypeOfClassesId=1,32,TypeOfClassesId=2,32,},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>new Curriculum(){GroupId = 4,SubjectId = 57,TypeOfClassesId=1,Number=32,IsDelete=false},</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="8"/>
+        <v>new Curriculum(){GroupId = 4,SubjectId = 57,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>148</v>
       </c>
@@ -11966,27 +12346,35 @@
         <v>SubjectId = 58,</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P18" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>151</v>
       </c>
@@ -12009,23 +12397,31 @@
         <v>#N/A</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -12038,8 +12434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D71D09F-D0D3-4A97-A426-3B740ED9CF89}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:O3"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12182,7 +12578,15 @@
         <v>0</v>
       </c>
       <c r="Q5" t="str">
-        <f>IF(P5,CONCATENATE("new Curriculum(){",L$2, L5, M5, N5,O5,"},"),"")</f>
+        <f>IF(E5&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L5,M$3,M5,"IsDelete=false},"),"")</f>
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" ref="R5:S5" si="1">IF(F5&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L5,N$3,N5,"IsDelete=false},"),"")</f>
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -12213,24 +12617,32 @@
         <v>SubjectId = 3,</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" ref="M6:M19" si="1">IF(E6&gt;0,CONCATENATE(M$3,E6,","),"")</f>
+        <f t="shared" ref="M6:M19" si="2">IF(E6&gt;0,CONCATENATE("Number=",E6,","),"")</f>
         <v/>
       </c>
       <c r="N6" t="str">
-        <f t="shared" ref="N6:N19" si="2">IF(F6&gt;0,CONCATENATE(N$3,F6,","),"")</f>
+        <f t="shared" ref="N6:N19" si="3">IF(F6&gt;0,CONCATENATE("Number=",F6,","),"")</f>
         <v/>
       </c>
       <c r="O6" t="str">
-        <f t="shared" ref="O6:O19" si="3">IF(G6&gt;0,CONCATENATE(O$3,G6,","),"")</f>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" ref="O6:O19" si="4">IF(G6&gt;0,CONCATENATE("Number=",G6,","),"")</f>
+        <v>Number=32,</v>
       </c>
       <c r="P6" t="b">
-        <f t="shared" ref="P6:P19" si="4">IF(AND(OR(E6&gt;0,F6&gt;0,G6&gt;0),IFERROR(L6,0)&gt;0),TRUE,FALSE)</f>
+        <f t="shared" ref="P6:P19" si="5">IF(AND(OR(E6&gt;0,F6&gt;0,G6&gt;0),IFERROR(L6,0)&gt;0),TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" ref="Q6:Q19" si="5">IF(P6,CONCATENATE("new Curriculum(){",L$2, L6, M6, N6,O6,"},"),"")</f>
-        <v>new Curriculum(){GroupId = 2,SubjectId = 3,TypeOfClassesId=2,32,},</v>
+        <f t="shared" ref="Q6:Q19" si="6">IF(E6&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L6,M$3,M6,"IsDelete=false},"),"")</f>
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" ref="R6:R19" si="7">IF(F6&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L6,N$3,N6,"IsDelete=false},"),"")</f>
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" ref="S6:S19" si="8">IF(G6&gt;0,CONCATENATE("new Curriculum(){",$L$2,$L6,O$3,O6,"IsDelete=false},"),"")</f>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 3,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -12256,23 +12668,31 @@
         <v>SubjectId = 50,</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P7" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -12305,24 +12725,32 @@
         <v>SubjectId = 2,</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,8,</v>
+        <f t="shared" si="2"/>
+        <v>Number=8,</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="3"/>
-        <v>TypeOfClassesId=2,8,</v>
+        <f t="shared" si="4"/>
+        <v>Number=8,</v>
       </c>
       <c r="P8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="5"/>
-        <v>new Curriculum(){GroupId = 2,SubjectId = 2,TypeOfClassesId=1,8,TypeOfClassesId=2,8,},</v>
+        <f t="shared" si="6"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 2,TypeOfClassesId=1,Number=8,IsDelete=false},</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="8"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 2,TypeOfClassesId=2,Number=8,IsDelete=false},</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -12354,24 +12782,32 @@
         <v>SubjectId = 51,</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="2"/>
+        <v>Number=16,</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="3"/>
-        <v>TypeOfClassesId=2,16,</v>
+        <f t="shared" si="4"/>
+        <v>Number=16,</v>
       </c>
       <c r="P9" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="5"/>
-        <v>new Curriculum(){GroupId = 2,SubjectId = 51,TypeOfClassesId=1,16,TypeOfClassesId=2,16,},</v>
+        <f t="shared" si="6"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 51,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="8"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 51,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -12397,23 +12833,31 @@
         <v>SubjectId = 52,</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P10" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -12448,24 +12892,32 @@
         <v>SubjectId = 7,</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="2"/>
+        <v>Number=16,</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="2"/>
-        <v>TypeOfClassesId=3,16,</v>
+        <f t="shared" si="3"/>
+        <v>Number=16,</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="3"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="4"/>
+        <v>Number=32,</v>
       </c>
       <c r="P11" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="5"/>
-        <v>new Curriculum(){GroupId = 2,SubjectId = 7,TypeOfClassesId=1,16,TypeOfClassesId=3,16,TypeOfClassesId=2,32,},</v>
+        <f t="shared" si="6"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 7,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="7"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 7,TypeOfClassesId=3,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="8"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 7,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -12497,24 +12949,32 @@
         <v>SubjectId = 53,</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,32,</v>
+        <f t="shared" si="2"/>
+        <v>Number=32,</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="3"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="4"/>
+        <v>Number=32,</v>
       </c>
       <c r="P12" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="5"/>
-        <v>new Curriculum(){GroupId = 2,SubjectId = 53,TypeOfClassesId=1,32,TypeOfClassesId=2,32,},</v>
+        <f t="shared" si="6"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 53,TypeOfClassesId=1,Number=32,IsDelete=false},</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="8"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 53,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -12546,24 +13006,32 @@
         <v>SubjectId = 4,</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,32,</v>
+        <f t="shared" si="2"/>
+        <v>Number=32,</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="3"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="4"/>
+        <v>Number=32,</v>
       </c>
       <c r="P13" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="5"/>
-        <v>new Curriculum(){GroupId = 2,SubjectId = 4,TypeOfClassesId=1,32,TypeOfClassesId=2,32,},</v>
+        <f t="shared" si="6"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 4,TypeOfClassesId=1,Number=32,IsDelete=false},</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="8"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 4,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -12595,24 +13063,32 @@
         <v>SubjectId = 54,</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="2"/>
+        <v>Number=16,</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="3"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="4"/>
+        <v>Number=32,</v>
       </c>
       <c r="P14" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="5"/>
-        <v>new Curriculum(){GroupId = 2,SubjectId = 54,TypeOfClassesId=1,16,TypeOfClassesId=2,32,},</v>
+        <f t="shared" si="6"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 54,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="8"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 54,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -12638,23 +13114,31 @@
         <v>SubjectId = 55,</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P15" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -12687,27 +13171,35 @@
         <v>SubjectId = 56,</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,32,</v>
+        <f t="shared" si="2"/>
+        <v>Number=32,</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="3"/>
-        <v>TypeOfClassesId=2,16,</v>
+        <f t="shared" si="4"/>
+        <v>Number=16,</v>
       </c>
       <c r="P16" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="5"/>
-        <v>new Curriculum(){GroupId = 2,SubjectId = 56,TypeOfClassesId=1,32,TypeOfClassesId=2,16,},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 56,TypeOfClassesId=1,Number=32,IsDelete=false},</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="8"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 56,TypeOfClassesId=2,Number=16,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>49</v>
       </c>
@@ -12736,27 +13228,35 @@
         <v>SubjectId = 57,</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="1"/>
-        <v>TypeOfClassesId=1,16,</v>
+        <f t="shared" si="2"/>
+        <v>Number=16,</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="3"/>
-        <v>TypeOfClassesId=2,32,</v>
+        <f t="shared" si="4"/>
+        <v>Number=32,</v>
       </c>
       <c r="P17" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="5"/>
-        <v>new Curriculum(){GroupId = 2,SubjectId = 57,TypeOfClassesId=1,16,TypeOfClassesId=2,32,},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 57,TypeOfClassesId=1,Number=16,IsDelete=false},</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="8"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 57,TypeOfClassesId=2,Number=32,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>148</v>
       </c>
@@ -12783,27 +13283,35 @@
         <v>SubjectId = 58,</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="3"/>
-        <v>TypeOfClassesId=2,64,</v>
+        <f t="shared" si="4"/>
+        <v>Number=64,</v>
       </c>
       <c r="P18" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="5"/>
-        <v>new Curriculum(){GroupId = 2,SubjectId = 58,TypeOfClassesId=2,64,},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="8"/>
+        <v>new Curriculum(){GroupId = 2,SubjectId = 58,TypeOfClassesId=2,Number=64,IsDelete=false},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>151</v>
       </c>
@@ -12828,23 +13336,31 @@
         <v>#N/A</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
